--- a/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.02a.xlsx
+++ b/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.02a.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ES-ASG\Projects\ES ASG\ES ASG API Playbook Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22FA3F5-AC8F-4697-804B-C762FE0B729F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20498" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548"/>
   </bookViews>
   <sheets>
     <sheet name="Main Plan" sheetId="1" r:id="rId1"/>
@@ -346,7 +345,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,57 +592,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -838,6 +786,57 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -918,35 +917,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:J29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:J29"/>
   <sortState ref="A2:J29">
     <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Section_x000a_Number" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Section Name" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Primary_x000a_Assignment" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Primary_x000a_Reviewer" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="V1" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="V2" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Kanban" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Inventory" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Status as of 8/2" dataDxfId="9"/>
+    <tableColumn id="1" name="ID" dataDxfId="15"/>
+    <tableColumn id="2" name="Section_x000a_Number" dataDxfId="14"/>
+    <tableColumn id="3" name="Section Name" dataDxfId="13"/>
+    <tableColumn id="4" name="Primary_x000a_Assignment" dataDxfId="12"/>
+    <tableColumn id="7" name="Primary_x000a_Reviewer" dataDxfId="11"/>
+    <tableColumn id="5" name="V1" dataDxfId="10"/>
+    <tableColumn id="8" name="V2" dataDxfId="9"/>
+    <tableColumn id="9" name="Kanban" dataDxfId="8"/>
+    <tableColumn id="10" name="Inventory" dataDxfId="7"/>
+    <tableColumn id="6" name="Status as of 8/2" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D29"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Section Name" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Due Date" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Old Section" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Old Date" dataDxfId="3"/>
+    <tableColumn id="1" name="Section Name" dataDxfId="3"/>
+    <tableColumn id="4" name="Due Date" dataDxfId="2"/>
+    <tableColumn id="5" name="Old Section" dataDxfId="1"/>
+    <tableColumn id="7" name="Old Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1248,29 +1247,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.46484375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="9.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.53125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.53125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.796875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="17" customWidth="1"/>
     <col min="9" max="9" width="91.6640625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="34.86328125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="34.86328125" customWidth="1"/>
+    <col min="10" max="10" width="34.88671875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1332,7 +1331,7 @@
       </c>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1362,7 +1361,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -1392,7 +1391,7 @@
       </c>
       <c r="J4" s="34"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -1422,7 +1421,7 @@
       </c>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1452,7 +1451,7 @@
       </c>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -1508,7 +1507,7 @@
       </c>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -1536,7 +1535,7 @@
       <c r="I9" s="30"/>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -1566,7 +1565,7 @@
       </c>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -1596,7 +1595,7 @@
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:10" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -1626,7 +1625,7 @@
       </c>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -1656,7 +1655,7 @@
       </c>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -1684,7 +1683,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:10" s="15" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -1714,7 +1713,7 @@
       </c>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -1742,7 +1741,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -1770,7 +1769,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -1798,7 +1797,7 @@
       <c r="I18" s="29"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -1826,7 +1825,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -1854,7 +1853,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -1882,7 +1881,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -1910,7 +1909,7 @@
       <c r="I22" s="29"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -1940,7 +1939,7 @@
       </c>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -1970,7 +1969,7 @@
       </c>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -1998,7 +1997,7 @@
       <c r="I25" s="30"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -2026,7 +2025,7 @@
       <c r="I26" s="36"/>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>26</v>
       </c>
@@ -2056,7 +2055,7 @@
       </c>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="33">
         <v>27</v>
       </c>
@@ -2084,7 +2083,7 @@
       <c r="I28" s="36"/>
       <c r="J28" s="34"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>28</v>
       </c>
@@ -2114,7 +2113,7 @@
       </c>
       <c r="J29" s="23"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E31" s="22"/>
     </row>
   </sheetData>
@@ -2127,24 +2126,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.53125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1328125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
@@ -2244,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
@@ -2324,7 +2323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>32</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>5</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>18</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>21</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>10</v>
       </c>

--- a/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.02a.xlsx
+++ b/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.02a.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Main Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Plan Compares" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -264,13 +264,6 @@
     <t>Inventory</t>
   </si>
   <si>
-    <t>ASG_API Playbook_02.01 Development Lifecycle_Section_01.01_Initial Draft.docx
-ASG_API Playbook_02.01 Development Lifecycle_Section_01.02_SME Review.docx
-ASG_API Playbook_02.01 Development Lifecycle_Section_01.03_SME Review Resolved.docx
-ASG_API Playbook_02.01 Development Lifecycle_Section_01.04_V2 Draft.docx
-ASG_API Playbook_02.01 Development Lifecycle_Section_01.05_Standards Review {paul marshall}.docx</t>
-  </si>
-  <si>
     <t>ASG_API Playbook_02.02 Industry Standards_HL7_Section_01.01_Initial Draft.docx</t>
   </si>
   <si>
@@ -340,6 +333,12 @@
   </si>
   <si>
     <t>Status as of 8/2</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_02.01 Development Lifecycle_Section_01.01_Initial Draft.docx
+ASG_API Playbook_02.01 Development Lifecycle_Section_01.02_SME Review.docx
+ASG_API Playbook_02.01 Development Lifecycle_Section_01.03_SME Review Resolved.docx
+ASG_API Playbook_02.01 Development Lifecycle_Section_01.04_V2 Draft.docx</t>
   </si>
 </sst>
 </file>
@@ -1250,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,13 +1291,13 @@
         <v>74</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1324,14 +1323,14 @@
         <v>47</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1354,10 +1353,10 @@
         <v>64</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -1384,10 +1383,10 @@
         <v>69</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="34"/>
     </row>
@@ -1414,10 +1413,10 @@
         <v>47</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="22"/>
     </row>
@@ -1444,10 +1443,10 @@
         <v>69</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -1474,10 +1473,10 @@
         <v>68</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1503,7 +1502,7 @@
         <v>47</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I8" s="30"/>
     </row>
@@ -1530,7 +1529,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="24"/>
@@ -1558,10 +1557,10 @@
         <v>73</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="22"/>
     </row>
@@ -1588,10 +1587,10 @@
         <v>73</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="22"/>
     </row>
@@ -1618,10 +1617,10 @@
         <v>64</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" s="18"/>
     </row>
@@ -1648,10 +1647,10 @@
         <v>73</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" s="24"/>
     </row>
@@ -1678,7 +1677,7 @@
         <v>69</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="22"/>
@@ -1706,10 +1705,10 @@
         <v>68</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" s="18"/>
     </row>
@@ -1736,7 +1735,7 @@
         <v>68</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="17"/>
@@ -1764,7 +1763,7 @@
         <v>68</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="18"/>
@@ -1792,7 +1791,7 @@
         <v>68</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="17"/>
@@ -1820,7 +1819,7 @@
         <v>68</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="18"/>
@@ -1848,7 +1847,7 @@
         <v>68</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="17"/>
@@ -1876,7 +1875,7 @@
         <v>68</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="18"/>
@@ -1904,7 +1903,7 @@
         <v>68</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" s="29"/>
       <c r="J22" s="17"/>
@@ -1932,10 +1931,10 @@
         <v>69</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J23" s="17"/>
     </row>
@@ -1962,10 +1961,10 @@
         <v>47</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J24" s="18"/>
     </row>
@@ -1992,7 +1991,7 @@
         <v>64</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="18"/>
@@ -2020,7 +2019,7 @@
         <v>69</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="34"/>
@@ -2048,10 +2047,10 @@
         <v>64</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J27" s="18"/>
     </row>
@@ -2078,7 +2077,7 @@
         <v>69</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="34"/>
@@ -2106,10 +2105,10 @@
         <v>69</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J29" s="23"/>
     </row>
